--- a/classInfo.xlsx
+++ b/classInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\classtable\ClasstableToIcal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613ECA9C-AAE4-4636-9D7A-BC69DCCBE7C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8FAC65-3DB0-4ABC-8F06-1DCA59B0095F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>创新设计及专利保护</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>张三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率论与数理统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +471,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -527,14 +539,33 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1866554</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>

--- a/classInfo.xlsx
+++ b/classInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\classtable\ClasstableToIcal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8FAC65-3DB0-4ABC-8F06-1DCA59B0095F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D966A3-A59B-4013-9735-06C7AB7F6F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,13 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>创新设计及专利保护</t>
-  </si>
-  <si>
-    <t>教3-107</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>startWeek</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,19 +63,116 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>概率论与数理统计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>H104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
+    <t>信息系统分析与设计</t>
+  </si>
+  <si>
+    <t>毛泽东思想和中国特色社会主义理论体系概论(上)</t>
+  </si>
+  <si>
+    <t>高等数学（管）2</t>
+  </si>
+  <si>
+    <t>二教G401</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页设计与制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二教G301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡铁城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育4足球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奉贤操场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张晓贤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>形势与政策（4）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一教A105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱秀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二教G303</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林学渊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二教E103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奉贤实践基地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘妍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学术英语写作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二教F107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范懿明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二教E403</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆海波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能与现代生活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一教B206</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李晓斌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高等数学（管）2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -170,12 +261,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -468,219 +564,550 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>1877654</v>
+        <v>1954434</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1956604</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1954434</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1955860</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1955379</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1955867</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1955695</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1957091</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1955868</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1955901</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
         <v>16</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1955747</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1955747</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1955747</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1955747</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1955747</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1955901</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1866554</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1955860</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L190">
-    <sortCondition ref="A2:A190"/>
-    <sortCondition ref="D2:D190"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I18">
+    <sortCondition ref="E2"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
